--- a/Stimuli/Enc_sheet.xlsx
+++ b/Stimuli/Enc_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewdougherty/Desktop/Projects/RetGoals_Git/Stimuli/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFD1BC6-3151-8B44-8DA1-9E4D4B2769FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51471CEA-C4DB-0042-A9C1-9807D0D9B1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13460" yWindow="740" windowWidth="14980" windowHeight="16240" xr2:uid="{1037EB24-FF9E-E541-8835-39510EAAB4CF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="315">
   <si>
     <t>stim_name</t>
   </si>
@@ -966,6 +966,21 @@
   </si>
   <si>
     <t>Encod_Stim.300.jpeg</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>Encoding</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -1345,10 +1360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172703DA-9DE2-8348-AF62-5B4EE5C908D2}">
-  <dimension ref="A1:D301"/>
+  <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A279" zoomScale="116" workbookViewId="0">
+      <selection activeCell="D202" sqref="D202:D301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1356,7 +1371,7 @@
     <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1369,8 +1384,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1380,11 +1398,14 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1394,11 +1415,14 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1408,11 +1432,14 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>312</v>
+      </c>
+      <c r="E4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1422,11 +1449,14 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1436,11 +1466,14 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>312</v>
+      </c>
+      <c r="E6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1450,11 +1483,14 @@
       <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>312</v>
+      </c>
+      <c r="E7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1464,11 +1500,14 @@
       <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>312</v>
+      </c>
+      <c r="E8" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1478,11 +1517,14 @@
       <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>312</v>
+      </c>
+      <c r="E9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1492,11 +1534,14 @@
       <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>312</v>
+      </c>
+      <c r="E10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1506,11 +1551,14 @@
       <c r="C11" t="s">
         <v>5</v>
       </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>312</v>
+      </c>
+      <c r="E11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1520,11 +1568,14 @@
       <c r="C12" t="s">
         <v>5</v>
       </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>312</v>
+      </c>
+      <c r="E12" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1534,11 +1585,14 @@
       <c r="C13" t="s">
         <v>5</v>
       </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>312</v>
+      </c>
+      <c r="E13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1548,11 +1602,14 @@
       <c r="C14" t="s">
         <v>5</v>
       </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>312</v>
+      </c>
+      <c r="E14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1562,11 +1619,14 @@
       <c r="C15" t="s">
         <v>5</v>
       </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>312</v>
+      </c>
+      <c r="E15" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1576,11 +1636,14 @@
       <c r="C16" t="s">
         <v>5</v>
       </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>312</v>
+      </c>
+      <c r="E16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1590,11 +1653,14 @@
       <c r="C17" t="s">
         <v>5</v>
       </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>312</v>
+      </c>
+      <c r="E17" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1604,11 +1670,14 @@
       <c r="C18" t="s">
         <v>5</v>
       </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>312</v>
+      </c>
+      <c r="E18" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1618,11 +1687,14 @@
       <c r="C19" t="s">
         <v>5</v>
       </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>312</v>
+      </c>
+      <c r="E19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1632,11 +1704,14 @@
       <c r="C20" t="s">
         <v>5</v>
       </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>312</v>
+      </c>
+      <c r="E20" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1646,11 +1721,14 @@
       <c r="C21" t="s">
         <v>5</v>
       </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>312</v>
+      </c>
+      <c r="E21" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1660,11 +1738,14 @@
       <c r="C22" t="s">
         <v>5</v>
       </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>312</v>
+      </c>
+      <c r="E22" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1674,11 +1755,14 @@
       <c r="C23" t="s">
         <v>5</v>
       </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>312</v>
+      </c>
+      <c r="E23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1688,11 +1772,14 @@
       <c r="C24" t="s">
         <v>5</v>
       </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>312</v>
+      </c>
+      <c r="E24" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -1702,11 +1789,14 @@
       <c r="C25" t="s">
         <v>5</v>
       </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>312</v>
+      </c>
+      <c r="E25" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -1716,11 +1806,14 @@
       <c r="C26" t="s">
         <v>5</v>
       </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>312</v>
+      </c>
+      <c r="E26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1730,11 +1823,14 @@
       <c r="C27" t="s">
         <v>5</v>
       </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>312</v>
+      </c>
+      <c r="E27" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1744,11 +1840,14 @@
       <c r="C28" t="s">
         <v>5</v>
       </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>312</v>
+      </c>
+      <c r="E28" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -1758,11 +1857,14 @@
       <c r="C29" t="s">
         <v>5</v>
       </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>312</v>
+      </c>
+      <c r="E29" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -1772,11 +1874,14 @@
       <c r="C30" t="s">
         <v>5</v>
       </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>312</v>
+      </c>
+      <c r="E30" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1786,11 +1891,14 @@
       <c r="C31" t="s">
         <v>5</v>
       </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>312</v>
+      </c>
+      <c r="E31" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -1800,11 +1908,14 @@
       <c r="C32" t="s">
         <v>5</v>
       </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>312</v>
+      </c>
+      <c r="E32" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -1814,11 +1925,14 @@
       <c r="C33" t="s">
         <v>5</v>
       </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>312</v>
+      </c>
+      <c r="E33" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -1828,11 +1942,14 @@
       <c r="C34" t="s">
         <v>5</v>
       </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>312</v>
+      </c>
+      <c r="E34" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -1842,11 +1959,14 @@
       <c r="C35" t="s">
         <v>5</v>
       </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>312</v>
+      </c>
+      <c r="E35" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -1856,11 +1976,14 @@
       <c r="C36" t="s">
         <v>5</v>
       </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>312</v>
+      </c>
+      <c r="E36" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -1870,11 +1993,14 @@
       <c r="C37" t="s">
         <v>5</v>
       </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>312</v>
+      </c>
+      <c r="E37" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -1884,11 +2010,14 @@
       <c r="C38" t="s">
         <v>5</v>
       </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>312</v>
+      </c>
+      <c r="E38" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -1898,11 +2027,14 @@
       <c r="C39" t="s">
         <v>5</v>
       </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>312</v>
+      </c>
+      <c r="E39" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -1912,11 +2044,14 @@
       <c r="C40" t="s">
         <v>5</v>
       </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>312</v>
+      </c>
+      <c r="E40" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -1926,11 +2061,14 @@
       <c r="C41" t="s">
         <v>5</v>
       </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>312</v>
+      </c>
+      <c r="E41" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -1940,11 +2078,14 @@
       <c r="C42" t="s">
         <v>5</v>
       </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>312</v>
+      </c>
+      <c r="E42" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -1954,11 +2095,14 @@
       <c r="C43" t="s">
         <v>5</v>
       </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>312</v>
+      </c>
+      <c r="E43" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -1968,11 +2112,14 @@
       <c r="C44" t="s">
         <v>5</v>
       </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>312</v>
+      </c>
+      <c r="E44" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -1982,11 +2129,14 @@
       <c r="C45" t="s">
         <v>5</v>
       </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>312</v>
+      </c>
+      <c r="E45" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -1996,11 +2146,14 @@
       <c r="C46" t="s">
         <v>5</v>
       </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>312</v>
+      </c>
+      <c r="E46" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -2010,11 +2163,14 @@
       <c r="C47" t="s">
         <v>5</v>
       </c>
-      <c r="D47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>312</v>
+      </c>
+      <c r="E47" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -2024,11 +2180,14 @@
       <c r="C48" t="s">
         <v>5</v>
       </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>312</v>
+      </c>
+      <c r="E48" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -2038,11 +2197,14 @@
       <c r="C49" t="s">
         <v>5</v>
       </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>312</v>
+      </c>
+      <c r="E49" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -2052,11 +2214,14 @@
       <c r="C50" t="s">
         <v>5</v>
       </c>
-      <c r="D50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>312</v>
+      </c>
+      <c r="E50" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -2066,11 +2231,14 @@
       <c r="C51" t="s">
         <v>5</v>
       </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>312</v>
+      </c>
+      <c r="E51" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -2080,11 +2248,14 @@
       <c r="C52" t="s">
         <v>5</v>
       </c>
-      <c r="D52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>312</v>
+      </c>
+      <c r="E52" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>61</v>
       </c>
@@ -2094,11 +2265,14 @@
       <c r="C53" t="s">
         <v>5</v>
       </c>
-      <c r="D53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>312</v>
+      </c>
+      <c r="E53" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>62</v>
       </c>
@@ -2108,11 +2282,14 @@
       <c r="C54" t="s">
         <v>5</v>
       </c>
-      <c r="D54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>312</v>
+      </c>
+      <c r="E54" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -2122,11 +2299,14 @@
       <c r="C55" t="s">
         <v>5</v>
       </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>312</v>
+      </c>
+      <c r="E55" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -2136,11 +2316,14 @@
       <c r="C56" t="s">
         <v>5</v>
       </c>
-      <c r="D56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>312</v>
+      </c>
+      <c r="E56" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>65</v>
       </c>
@@ -2150,11 +2333,14 @@
       <c r="C57" t="s">
         <v>5</v>
       </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>312</v>
+      </c>
+      <c r="E57" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>66</v>
       </c>
@@ -2164,11 +2350,14 @@
       <c r="C58" t="s">
         <v>5</v>
       </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>312</v>
+      </c>
+      <c r="E58" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>67</v>
       </c>
@@ -2178,11 +2367,14 @@
       <c r="C59" t="s">
         <v>5</v>
       </c>
-      <c r="D59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>312</v>
+      </c>
+      <c r="E59" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>68</v>
       </c>
@@ -2192,11 +2384,14 @@
       <c r="C60" t="s">
         <v>5</v>
       </c>
-      <c r="D60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>312</v>
+      </c>
+      <c r="E60" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>69</v>
       </c>
@@ -2206,11 +2401,14 @@
       <c r="C61" t="s">
         <v>5</v>
       </c>
-      <c r="D61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>312</v>
+      </c>
+      <c r="E61" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>70</v>
       </c>
@@ -2220,11 +2418,14 @@
       <c r="C62" t="s">
         <v>5</v>
       </c>
-      <c r="D62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>312</v>
+      </c>
+      <c r="E62" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>71</v>
       </c>
@@ -2234,11 +2435,14 @@
       <c r="C63" t="s">
         <v>5</v>
       </c>
-      <c r="D63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>312</v>
+      </c>
+      <c r="E63" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -2248,11 +2452,14 @@
       <c r="C64" t="s">
         <v>5</v>
       </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D64" t="s">
+        <v>312</v>
+      </c>
+      <c r="E64" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>73</v>
       </c>
@@ -2262,11 +2469,14 @@
       <c r="C65" t="s">
         <v>5</v>
       </c>
-      <c r="D65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>312</v>
+      </c>
+      <c r="E65" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>74</v>
       </c>
@@ -2276,11 +2486,14 @@
       <c r="C66" t="s">
         <v>5</v>
       </c>
-      <c r="D66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>312</v>
+      </c>
+      <c r="E66" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>75</v>
       </c>
@@ -2290,11 +2503,14 @@
       <c r="C67" t="s">
         <v>5</v>
       </c>
-      <c r="D67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D67" t="s">
+        <v>312</v>
+      </c>
+      <c r="E67" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>76</v>
       </c>
@@ -2304,11 +2520,14 @@
       <c r="C68" t="s">
         <v>5</v>
       </c>
-      <c r="D68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>312</v>
+      </c>
+      <c r="E68" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>77</v>
       </c>
@@ -2318,11 +2537,14 @@
       <c r="C69" t="s">
         <v>5</v>
       </c>
-      <c r="D69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D69" t="s">
+        <v>312</v>
+      </c>
+      <c r="E69" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>78</v>
       </c>
@@ -2332,11 +2554,14 @@
       <c r="C70" t="s">
         <v>5</v>
       </c>
-      <c r="D70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
+        <v>312</v>
+      </c>
+      <c r="E70" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>79</v>
       </c>
@@ -2346,11 +2571,14 @@
       <c r="C71" t="s">
         <v>5</v>
       </c>
-      <c r="D71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
+        <v>312</v>
+      </c>
+      <c r="E71" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>80</v>
       </c>
@@ -2360,11 +2588,14 @@
       <c r="C72" t="s">
         <v>5</v>
       </c>
-      <c r="D72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D72" t="s">
+        <v>312</v>
+      </c>
+      <c r="E72" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>81</v>
       </c>
@@ -2374,11 +2605,14 @@
       <c r="C73" t="s">
         <v>5</v>
       </c>
-      <c r="D73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
+        <v>312</v>
+      </c>
+      <c r="E73" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>82</v>
       </c>
@@ -2388,11 +2622,14 @@
       <c r="C74" t="s">
         <v>5</v>
       </c>
-      <c r="D74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D74" t="s">
+        <v>312</v>
+      </c>
+      <c r="E74" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>83</v>
       </c>
@@ -2402,11 +2639,14 @@
       <c r="C75" t="s">
         <v>5</v>
       </c>
-      <c r="D75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D75" t="s">
+        <v>312</v>
+      </c>
+      <c r="E75" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>84</v>
       </c>
@@ -2416,11 +2656,14 @@
       <c r="C76" t="s">
         <v>5</v>
       </c>
-      <c r="D76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D76" t="s">
+        <v>312</v>
+      </c>
+      <c r="E76" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>85</v>
       </c>
@@ -2430,11 +2673,14 @@
       <c r="C77" t="s">
         <v>5</v>
       </c>
-      <c r="D77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D77" t="s">
+        <v>312</v>
+      </c>
+      <c r="E77" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>86</v>
       </c>
@@ -2444,11 +2690,14 @@
       <c r="C78" t="s">
         <v>5</v>
       </c>
-      <c r="D78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D78" t="s">
+        <v>312</v>
+      </c>
+      <c r="E78" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>87</v>
       </c>
@@ -2458,11 +2707,14 @@
       <c r="C79" t="s">
         <v>5</v>
       </c>
-      <c r="D79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D79" t="s">
+        <v>312</v>
+      </c>
+      <c r="E79" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>88</v>
       </c>
@@ -2472,11 +2724,14 @@
       <c r="C80" t="s">
         <v>5</v>
       </c>
-      <c r="D80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D80" t="s">
+        <v>312</v>
+      </c>
+      <c r="E80" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>89</v>
       </c>
@@ -2486,11 +2741,14 @@
       <c r="C81" t="s">
         <v>5</v>
       </c>
-      <c r="D81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D81" t="s">
+        <v>312</v>
+      </c>
+      <c r="E81" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>90</v>
       </c>
@@ -2500,11 +2758,14 @@
       <c r="C82" t="s">
         <v>5</v>
       </c>
-      <c r="D82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D82" t="s">
+        <v>312</v>
+      </c>
+      <c r="E82" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>91</v>
       </c>
@@ -2514,11 +2775,14 @@
       <c r="C83" t="s">
         <v>5</v>
       </c>
-      <c r="D83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D83" t="s">
+        <v>312</v>
+      </c>
+      <c r="E83" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>92</v>
       </c>
@@ -2528,11 +2792,14 @@
       <c r="C84" t="s">
         <v>5</v>
       </c>
-      <c r="D84">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D84" t="s">
+        <v>312</v>
+      </c>
+      <c r="E84" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>93</v>
       </c>
@@ -2542,11 +2809,14 @@
       <c r="C85" t="s">
         <v>5</v>
       </c>
-      <c r="D85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D85" t="s">
+        <v>312</v>
+      </c>
+      <c r="E85" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>94</v>
       </c>
@@ -2556,11 +2826,14 @@
       <c r="C86" t="s">
         <v>5</v>
       </c>
-      <c r="D86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D86" t="s">
+        <v>312</v>
+      </c>
+      <c r="E86" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>95</v>
       </c>
@@ -2570,11 +2843,14 @@
       <c r="C87" t="s">
         <v>5</v>
       </c>
-      <c r="D87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D87" t="s">
+        <v>312</v>
+      </c>
+      <c r="E87" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>96</v>
       </c>
@@ -2584,11 +2860,14 @@
       <c r="C88" t="s">
         <v>5</v>
       </c>
-      <c r="D88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D88" t="s">
+        <v>312</v>
+      </c>
+      <c r="E88" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>97</v>
       </c>
@@ -2598,11 +2877,14 @@
       <c r="C89" t="s">
         <v>5</v>
       </c>
-      <c r="D89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D89" t="s">
+        <v>312</v>
+      </c>
+      <c r="E89" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>98</v>
       </c>
@@ -2612,11 +2894,14 @@
       <c r="C90" t="s">
         <v>5</v>
       </c>
-      <c r="D90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D90" t="s">
+        <v>312</v>
+      </c>
+      <c r="E90" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>99</v>
       </c>
@@ -2626,11 +2911,14 @@
       <c r="C91" t="s">
         <v>5</v>
       </c>
-      <c r="D91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D91" t="s">
+        <v>312</v>
+      </c>
+      <c r="E91" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>100</v>
       </c>
@@ -2640,11 +2928,14 @@
       <c r="C92" t="s">
         <v>5</v>
       </c>
-      <c r="D92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D92" t="s">
+        <v>312</v>
+      </c>
+      <c r="E92" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>101</v>
       </c>
@@ -2654,11 +2945,14 @@
       <c r="C93" t="s">
         <v>5</v>
       </c>
-      <c r="D93">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D93" t="s">
+        <v>312</v>
+      </c>
+      <c r="E93" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>102</v>
       </c>
@@ -2668,11 +2962,14 @@
       <c r="C94" t="s">
         <v>5</v>
       </c>
-      <c r="D94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D94" t="s">
+        <v>312</v>
+      </c>
+      <c r="E94" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>103</v>
       </c>
@@ -2682,11 +2979,14 @@
       <c r="C95" t="s">
         <v>5</v>
       </c>
-      <c r="D95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D95" t="s">
+        <v>312</v>
+      </c>
+      <c r="E95" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>104</v>
       </c>
@@ -2696,11 +2996,14 @@
       <c r="C96" t="s">
         <v>5</v>
       </c>
-      <c r="D96">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D96" t="s">
+        <v>312</v>
+      </c>
+      <c r="E96" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>105</v>
       </c>
@@ -2710,11 +3013,14 @@
       <c r="C97" t="s">
         <v>5</v>
       </c>
-      <c r="D97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D97" t="s">
+        <v>312</v>
+      </c>
+      <c r="E97" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>106</v>
       </c>
@@ -2724,11 +3030,14 @@
       <c r="C98" t="s">
         <v>5</v>
       </c>
-      <c r="D98">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D98" t="s">
+        <v>312</v>
+      </c>
+      <c r="E98" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>107</v>
       </c>
@@ -2738,11 +3047,14 @@
       <c r="C99" t="s">
         <v>5</v>
       </c>
-      <c r="D99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D99" t="s">
+        <v>312</v>
+      </c>
+      <c r="E99" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>108</v>
       </c>
@@ -2752,11 +3064,14 @@
       <c r="C100" t="s">
         <v>5</v>
       </c>
-      <c r="D100">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D100" t="s">
+        <v>312</v>
+      </c>
+      <c r="E100" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>109</v>
       </c>
@@ -2766,11 +3081,14 @@
       <c r="C101" t="s">
         <v>5</v>
       </c>
-      <c r="D101">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D101" t="s">
+        <v>312</v>
+      </c>
+      <c r="E101" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>110</v>
       </c>
@@ -2780,11 +3098,14 @@
       <c r="C102" t="s">
         <v>8</v>
       </c>
-      <c r="D102">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D102" t="s">
+        <v>313</v>
+      </c>
+      <c r="E102" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>111</v>
       </c>
@@ -2794,11 +3115,14 @@
       <c r="C103" t="s">
         <v>8</v>
       </c>
-      <c r="D103">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D103" t="s">
+        <v>313</v>
+      </c>
+      <c r="E103" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>112</v>
       </c>
@@ -2808,11 +3132,14 @@
       <c r="C104" t="s">
         <v>8</v>
       </c>
-      <c r="D104">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D104" t="s">
+        <v>313</v>
+      </c>
+      <c r="E104" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>113</v>
       </c>
@@ -2822,11 +3149,14 @@
       <c r="C105" t="s">
         <v>8</v>
       </c>
-      <c r="D105">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D105" t="s">
+        <v>313</v>
+      </c>
+      <c r="E105" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>114</v>
       </c>
@@ -2836,11 +3166,14 @@
       <c r="C106" t="s">
         <v>8</v>
       </c>
-      <c r="D106">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D106" t="s">
+        <v>313</v>
+      </c>
+      <c r="E106" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>115</v>
       </c>
@@ -2850,11 +3183,14 @@
       <c r="C107" t="s">
         <v>8</v>
       </c>
-      <c r="D107">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D107" t="s">
+        <v>313</v>
+      </c>
+      <c r="E107" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>116</v>
       </c>
@@ -2864,11 +3200,14 @@
       <c r="C108" t="s">
         <v>8</v>
       </c>
-      <c r="D108">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D108" t="s">
+        <v>313</v>
+      </c>
+      <c r="E108" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>117</v>
       </c>
@@ -2878,11 +3217,14 @@
       <c r="C109" t="s">
         <v>8</v>
       </c>
-      <c r="D109">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D109" t="s">
+        <v>313</v>
+      </c>
+      <c r="E109" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>118</v>
       </c>
@@ -2892,11 +3234,14 @@
       <c r="C110" t="s">
         <v>8</v>
       </c>
-      <c r="D110">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D110" t="s">
+        <v>313</v>
+      </c>
+      <c r="E110" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>119</v>
       </c>
@@ -2906,11 +3251,14 @@
       <c r="C111" t="s">
         <v>8</v>
       </c>
-      <c r="D111">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D111" t="s">
+        <v>313</v>
+      </c>
+      <c r="E111" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>120</v>
       </c>
@@ -2920,11 +3268,14 @@
       <c r="C112" t="s">
         <v>8</v>
       </c>
-      <c r="D112">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D112" t="s">
+        <v>313</v>
+      </c>
+      <c r="E112" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>121</v>
       </c>
@@ -2934,11 +3285,14 @@
       <c r="C113" t="s">
         <v>8</v>
       </c>
-      <c r="D113">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D113" t="s">
+        <v>313</v>
+      </c>
+      <c r="E113" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>122</v>
       </c>
@@ -2948,11 +3302,14 @@
       <c r="C114" t="s">
         <v>8</v>
       </c>
-      <c r="D114">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D114" t="s">
+        <v>313</v>
+      </c>
+      <c r="E114" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>123</v>
       </c>
@@ -2962,11 +3319,14 @@
       <c r="C115" t="s">
         <v>8</v>
       </c>
-      <c r="D115">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D115" t="s">
+        <v>313</v>
+      </c>
+      <c r="E115" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>124</v>
       </c>
@@ -2976,11 +3336,14 @@
       <c r="C116" t="s">
         <v>8</v>
       </c>
-      <c r="D116">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D116" t="s">
+        <v>313</v>
+      </c>
+      <c r="E116" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>125</v>
       </c>
@@ -2990,11 +3353,14 @@
       <c r="C117" t="s">
         <v>8</v>
       </c>
-      <c r="D117">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D117" t="s">
+        <v>313</v>
+      </c>
+      <c r="E117" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>126</v>
       </c>
@@ -3004,11 +3370,14 @@
       <c r="C118" t="s">
         <v>8</v>
       </c>
-      <c r="D118">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D118" t="s">
+        <v>313</v>
+      </c>
+      <c r="E118" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>127</v>
       </c>
@@ -3018,11 +3387,14 @@
       <c r="C119" t="s">
         <v>8</v>
       </c>
-      <c r="D119">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D119" t="s">
+        <v>313</v>
+      </c>
+      <c r="E119" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>128</v>
       </c>
@@ -3032,11 +3404,14 @@
       <c r="C120" t="s">
         <v>8</v>
       </c>
-      <c r="D120">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D120" t="s">
+        <v>313</v>
+      </c>
+      <c r="E120" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>129</v>
       </c>
@@ -3046,11 +3421,14 @@
       <c r="C121" t="s">
         <v>8</v>
       </c>
-      <c r="D121">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D121" t="s">
+        <v>313</v>
+      </c>
+      <c r="E121" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>130</v>
       </c>
@@ -3060,11 +3438,14 @@
       <c r="C122" t="s">
         <v>8</v>
       </c>
-      <c r="D122">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D122" t="s">
+        <v>313</v>
+      </c>
+      <c r="E122" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>131</v>
       </c>
@@ -3074,11 +3455,14 @@
       <c r="C123" t="s">
         <v>8</v>
       </c>
-      <c r="D123">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D123" t="s">
+        <v>313</v>
+      </c>
+      <c r="E123" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>132</v>
       </c>
@@ -3088,11 +3472,14 @@
       <c r="C124" t="s">
         <v>8</v>
       </c>
-      <c r="D124">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D124" t="s">
+        <v>313</v>
+      </c>
+      <c r="E124" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>133</v>
       </c>
@@ -3102,11 +3489,14 @@
       <c r="C125" t="s">
         <v>8</v>
       </c>
-      <c r="D125">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D125" t="s">
+        <v>313</v>
+      </c>
+      <c r="E125" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>134</v>
       </c>
@@ -3116,11 +3506,14 @@
       <c r="C126" t="s">
         <v>8</v>
       </c>
-      <c r="D126">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D126" t="s">
+        <v>313</v>
+      </c>
+      <c r="E126" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>135</v>
       </c>
@@ -3130,11 +3523,14 @@
       <c r="C127" t="s">
         <v>8</v>
       </c>
-      <c r="D127">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D127" t="s">
+        <v>313</v>
+      </c>
+      <c r="E127" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>136</v>
       </c>
@@ -3144,11 +3540,14 @@
       <c r="C128" t="s">
         <v>8</v>
       </c>
-      <c r="D128">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D128" t="s">
+        <v>313</v>
+      </c>
+      <c r="E128" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>137</v>
       </c>
@@ -3158,11 +3557,14 @@
       <c r="C129" t="s">
         <v>8</v>
       </c>
-      <c r="D129">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D129" t="s">
+        <v>313</v>
+      </c>
+      <c r="E129" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>138</v>
       </c>
@@ -3172,11 +3574,14 @@
       <c r="C130" t="s">
         <v>8</v>
       </c>
-      <c r="D130">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D130" t="s">
+        <v>313</v>
+      </c>
+      <c r="E130" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>139</v>
       </c>
@@ -3186,11 +3591,14 @@
       <c r="C131" t="s">
         <v>8</v>
       </c>
-      <c r="D131">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D131" t="s">
+        <v>313</v>
+      </c>
+      <c r="E131" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>140</v>
       </c>
@@ -3200,11 +3608,14 @@
       <c r="C132" t="s">
         <v>8</v>
       </c>
-      <c r="D132">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D132" t="s">
+        <v>313</v>
+      </c>
+      <c r="E132" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>141</v>
       </c>
@@ -3214,11 +3625,14 @@
       <c r="C133" t="s">
         <v>8</v>
       </c>
-      <c r="D133">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D133" t="s">
+        <v>313</v>
+      </c>
+      <c r="E133" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>142</v>
       </c>
@@ -3228,11 +3642,14 @@
       <c r="C134" t="s">
         <v>8</v>
       </c>
-      <c r="D134">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D134" t="s">
+        <v>313</v>
+      </c>
+      <c r="E134" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>143</v>
       </c>
@@ -3242,11 +3659,14 @@
       <c r="C135" t="s">
         <v>8</v>
       </c>
-      <c r="D135">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D135" t="s">
+        <v>313</v>
+      </c>
+      <c r="E135" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>144</v>
       </c>
@@ -3256,11 +3676,14 @@
       <c r="C136" t="s">
         <v>8</v>
       </c>
-      <c r="D136">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D136" t="s">
+        <v>313</v>
+      </c>
+      <c r="E136" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>145</v>
       </c>
@@ -3270,11 +3693,14 @@
       <c r="C137" t="s">
         <v>8</v>
       </c>
-      <c r="D137">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D137" t="s">
+        <v>313</v>
+      </c>
+      <c r="E137" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>146</v>
       </c>
@@ -3284,11 +3710,14 @@
       <c r="C138" t="s">
         <v>8</v>
       </c>
-      <c r="D138">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D138" t="s">
+        <v>313</v>
+      </c>
+      <c r="E138" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>147</v>
       </c>
@@ -3298,11 +3727,14 @@
       <c r="C139" t="s">
         <v>8</v>
       </c>
-      <c r="D139">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D139" t="s">
+        <v>313</v>
+      </c>
+      <c r="E139" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>148</v>
       </c>
@@ -3312,11 +3744,14 @@
       <c r="C140" t="s">
         <v>8</v>
       </c>
-      <c r="D140">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D140" t="s">
+        <v>313</v>
+      </c>
+      <c r="E140" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>149</v>
       </c>
@@ -3326,11 +3761,14 @@
       <c r="C141" t="s">
         <v>8</v>
       </c>
-      <c r="D141">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D141" t="s">
+        <v>313</v>
+      </c>
+      <c r="E141" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>150</v>
       </c>
@@ -3340,11 +3778,14 @@
       <c r="C142" t="s">
         <v>8</v>
       </c>
-      <c r="D142">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D142" t="s">
+        <v>313</v>
+      </c>
+      <c r="E142" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>151</v>
       </c>
@@ -3354,11 +3795,14 @@
       <c r="C143" t="s">
         <v>8</v>
       </c>
-      <c r="D143">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D143" t="s">
+        <v>313</v>
+      </c>
+      <c r="E143" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>152</v>
       </c>
@@ -3368,11 +3812,14 @@
       <c r="C144" t="s">
         <v>8</v>
       </c>
-      <c r="D144">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D144" t="s">
+        <v>313</v>
+      </c>
+      <c r="E144" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>153</v>
       </c>
@@ -3382,11 +3829,14 @@
       <c r="C145" t="s">
         <v>8</v>
       </c>
-      <c r="D145">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D145" t="s">
+        <v>313</v>
+      </c>
+      <c r="E145" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>154</v>
       </c>
@@ -3396,11 +3846,14 @@
       <c r="C146" t="s">
         <v>8</v>
       </c>
-      <c r="D146">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D146" t="s">
+        <v>313</v>
+      </c>
+      <c r="E146" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>155</v>
       </c>
@@ -3410,11 +3863,14 @@
       <c r="C147" t="s">
         <v>8</v>
       </c>
-      <c r="D147">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D147" t="s">
+        <v>313</v>
+      </c>
+      <c r="E147" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>156</v>
       </c>
@@ -3424,11 +3880,14 @@
       <c r="C148" t="s">
         <v>8</v>
       </c>
-      <c r="D148">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D148" t="s">
+        <v>313</v>
+      </c>
+      <c r="E148" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>157</v>
       </c>
@@ -3438,11 +3897,14 @@
       <c r="C149" t="s">
         <v>8</v>
       </c>
-      <c r="D149">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D149" t="s">
+        <v>313</v>
+      </c>
+      <c r="E149" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>158</v>
       </c>
@@ -3452,11 +3914,14 @@
       <c r="C150" t="s">
         <v>8</v>
       </c>
-      <c r="D150">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D150" t="s">
+        <v>313</v>
+      </c>
+      <c r="E150" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>159</v>
       </c>
@@ -3466,11 +3931,14 @@
       <c r="C151" t="s">
         <v>8</v>
       </c>
-      <c r="D151">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D151" t="s">
+        <v>313</v>
+      </c>
+      <c r="E151" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>160</v>
       </c>
@@ -3480,11 +3948,14 @@
       <c r="C152" t="s">
         <v>8</v>
       </c>
-      <c r="D152">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D152" t="s">
+        <v>313</v>
+      </c>
+      <c r="E152" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>161</v>
       </c>
@@ -3494,11 +3965,14 @@
       <c r="C153" t="s">
         <v>8</v>
       </c>
-      <c r="D153">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D153" t="s">
+        <v>313</v>
+      </c>
+      <c r="E153" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>162</v>
       </c>
@@ -3508,11 +3982,14 @@
       <c r="C154" t="s">
         <v>8</v>
       </c>
-      <c r="D154">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D154" t="s">
+        <v>313</v>
+      </c>
+      <c r="E154" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>163</v>
       </c>
@@ -3522,11 +3999,14 @@
       <c r="C155" t="s">
         <v>8</v>
       </c>
-      <c r="D155">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D155" t="s">
+        <v>313</v>
+      </c>
+      <c r="E155" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>164</v>
       </c>
@@ -3536,11 +4016,14 @@
       <c r="C156" t="s">
         <v>8</v>
       </c>
-      <c r="D156">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D156" t="s">
+        <v>313</v>
+      </c>
+      <c r="E156" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>165</v>
       </c>
@@ -3550,11 +4033,14 @@
       <c r="C157" t="s">
         <v>8</v>
       </c>
-      <c r="D157">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D157" t="s">
+        <v>313</v>
+      </c>
+      <c r="E157" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>166</v>
       </c>
@@ -3564,11 +4050,14 @@
       <c r="C158" t="s">
         <v>8</v>
       </c>
-      <c r="D158">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D158" t="s">
+        <v>313</v>
+      </c>
+      <c r="E158" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>167</v>
       </c>
@@ -3578,11 +4067,14 @@
       <c r="C159" t="s">
         <v>8</v>
       </c>
-      <c r="D159">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D159" t="s">
+        <v>313</v>
+      </c>
+      <c r="E159" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>168</v>
       </c>
@@ -3592,11 +4084,14 @@
       <c r="C160" t="s">
         <v>8</v>
       </c>
-      <c r="D160">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D160" t="s">
+        <v>313</v>
+      </c>
+      <c r="E160" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>169</v>
       </c>
@@ -3606,11 +4101,14 @@
       <c r="C161" t="s">
         <v>8</v>
       </c>
-      <c r="D161">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D161" t="s">
+        <v>313</v>
+      </c>
+      <c r="E161" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>170</v>
       </c>
@@ -3620,11 +4118,14 @@
       <c r="C162" t="s">
         <v>8</v>
       </c>
-      <c r="D162">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D162" t="s">
+        <v>313</v>
+      </c>
+      <c r="E162" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>171</v>
       </c>
@@ -3634,11 +4135,14 @@
       <c r="C163" t="s">
         <v>8</v>
       </c>
-      <c r="D163">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D163" t="s">
+        <v>313</v>
+      </c>
+      <c r="E163" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>172</v>
       </c>
@@ -3648,11 +4152,14 @@
       <c r="C164" t="s">
         <v>8</v>
       </c>
-      <c r="D164">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D164" t="s">
+        <v>313</v>
+      </c>
+      <c r="E164" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>173</v>
       </c>
@@ -3662,11 +4169,14 @@
       <c r="C165" t="s">
         <v>8</v>
       </c>
-      <c r="D165">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D165" t="s">
+        <v>313</v>
+      </c>
+      <c r="E165" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>174</v>
       </c>
@@ -3676,11 +4186,14 @@
       <c r="C166" t="s">
         <v>8</v>
       </c>
-      <c r="D166">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D166" t="s">
+        <v>313</v>
+      </c>
+      <c r="E166" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>175</v>
       </c>
@@ -3690,11 +4203,14 @@
       <c r="C167" t="s">
         <v>8</v>
       </c>
-      <c r="D167">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D167" t="s">
+        <v>313</v>
+      </c>
+      <c r="E167" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>176</v>
       </c>
@@ -3704,11 +4220,14 @@
       <c r="C168" t="s">
         <v>8</v>
       </c>
-      <c r="D168">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D168" t="s">
+        <v>313</v>
+      </c>
+      <c r="E168" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>177</v>
       </c>
@@ -3718,11 +4237,14 @@
       <c r="C169" t="s">
         <v>8</v>
       </c>
-      <c r="D169">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D169" t="s">
+        <v>313</v>
+      </c>
+      <c r="E169" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>178</v>
       </c>
@@ -3732,11 +4254,14 @@
       <c r="C170" t="s">
         <v>8</v>
       </c>
-      <c r="D170">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D170" t="s">
+        <v>313</v>
+      </c>
+      <c r="E170" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>179</v>
       </c>
@@ -3746,11 +4271,14 @@
       <c r="C171" t="s">
         <v>8</v>
       </c>
-      <c r="D171">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D171" t="s">
+        <v>313</v>
+      </c>
+      <c r="E171" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>180</v>
       </c>
@@ -3760,11 +4288,14 @@
       <c r="C172" t="s">
         <v>8</v>
       </c>
-      <c r="D172">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D172" t="s">
+        <v>313</v>
+      </c>
+      <c r="E172" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>181</v>
       </c>
@@ -3774,11 +4305,14 @@
       <c r="C173" t="s">
         <v>8</v>
       </c>
-      <c r="D173">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D173" t="s">
+        <v>313</v>
+      </c>
+      <c r="E173" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>182</v>
       </c>
@@ -3788,11 +4322,14 @@
       <c r="C174" t="s">
         <v>8</v>
       </c>
-      <c r="D174">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D174" t="s">
+        <v>313</v>
+      </c>
+      <c r="E174" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>183</v>
       </c>
@@ -3802,11 +4339,14 @@
       <c r="C175" t="s">
         <v>8</v>
       </c>
-      <c r="D175">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D175" t="s">
+        <v>313</v>
+      </c>
+      <c r="E175" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>184</v>
       </c>
@@ -3816,11 +4356,14 @@
       <c r="C176" t="s">
         <v>8</v>
       </c>
-      <c r="D176">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D176" t="s">
+        <v>313</v>
+      </c>
+      <c r="E176" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>185</v>
       </c>
@@ -3830,11 +4373,14 @@
       <c r="C177" t="s">
         <v>8</v>
       </c>
-      <c r="D177">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D177" t="s">
+        <v>313</v>
+      </c>
+      <c r="E177" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>186</v>
       </c>
@@ -3844,11 +4390,14 @@
       <c r="C178" t="s">
         <v>8</v>
       </c>
-      <c r="D178">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D178" t="s">
+        <v>313</v>
+      </c>
+      <c r="E178" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>187</v>
       </c>
@@ -3858,11 +4407,14 @@
       <c r="C179" t="s">
         <v>8</v>
       </c>
-      <c r="D179">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D179" t="s">
+        <v>313</v>
+      </c>
+      <c r="E179" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>188</v>
       </c>
@@ -3872,11 +4424,14 @@
       <c r="C180" t="s">
         <v>8</v>
       </c>
-      <c r="D180">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D180" t="s">
+        <v>313</v>
+      </c>
+      <c r="E180" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>189</v>
       </c>
@@ -3886,11 +4441,14 @@
       <c r="C181" t="s">
         <v>8</v>
       </c>
-      <c r="D181">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D181" t="s">
+        <v>313</v>
+      </c>
+      <c r="E181" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>190</v>
       </c>
@@ -3900,11 +4458,14 @@
       <c r="C182" t="s">
         <v>8</v>
       </c>
-      <c r="D182">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D182" t="s">
+        <v>313</v>
+      </c>
+      <c r="E182" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>191</v>
       </c>
@@ -3914,11 +4475,14 @@
       <c r="C183" t="s">
         <v>8</v>
       </c>
-      <c r="D183">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D183" t="s">
+        <v>313</v>
+      </c>
+      <c r="E183" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>192</v>
       </c>
@@ -3928,11 +4492,14 @@
       <c r="C184" t="s">
         <v>8</v>
       </c>
-      <c r="D184">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D184" t="s">
+        <v>313</v>
+      </c>
+      <c r="E184" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>193</v>
       </c>
@@ -3942,11 +4509,14 @@
       <c r="C185" t="s">
         <v>8</v>
       </c>
-      <c r="D185">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D185" t="s">
+        <v>313</v>
+      </c>
+      <c r="E185" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>194</v>
       </c>
@@ -3956,11 +4526,14 @@
       <c r="C186" t="s">
         <v>8</v>
       </c>
-      <c r="D186">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D186" t="s">
+        <v>313</v>
+      </c>
+      <c r="E186" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>195</v>
       </c>
@@ -3970,11 +4543,14 @@
       <c r="C187" t="s">
         <v>8</v>
       </c>
-      <c r="D187">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D187" t="s">
+        <v>313</v>
+      </c>
+      <c r="E187" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>196</v>
       </c>
@@ -3984,11 +4560,14 @@
       <c r="C188" t="s">
         <v>8</v>
       </c>
-      <c r="D188">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D188" t="s">
+        <v>313</v>
+      </c>
+      <c r="E188" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>197</v>
       </c>
@@ -3998,11 +4577,14 @@
       <c r="C189" t="s">
         <v>8</v>
       </c>
-      <c r="D189">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D189" t="s">
+        <v>313</v>
+      </c>
+      <c r="E189" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>198</v>
       </c>
@@ -4012,11 +4594,14 @@
       <c r="C190" t="s">
         <v>8</v>
       </c>
-      <c r="D190">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D190" t="s">
+        <v>313</v>
+      </c>
+      <c r="E190" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>199</v>
       </c>
@@ -4026,11 +4611,14 @@
       <c r="C191" t="s">
         <v>8</v>
       </c>
-      <c r="D191">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D191" t="s">
+        <v>313</v>
+      </c>
+      <c r="E191" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>200</v>
       </c>
@@ -4040,11 +4628,14 @@
       <c r="C192" t="s">
         <v>8</v>
       </c>
-      <c r="D192">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D192" t="s">
+        <v>313</v>
+      </c>
+      <c r="E192" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>201</v>
       </c>
@@ -4054,11 +4645,14 @@
       <c r="C193" t="s">
         <v>8</v>
       </c>
-      <c r="D193">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D193" t="s">
+        <v>313</v>
+      </c>
+      <c r="E193" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>202</v>
       </c>
@@ -4068,11 +4662,14 @@
       <c r="C194" t="s">
         <v>8</v>
       </c>
-      <c r="D194">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D194" t="s">
+        <v>313</v>
+      </c>
+      <c r="E194" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>203</v>
       </c>
@@ -4082,11 +4679,14 @@
       <c r="C195" t="s">
         <v>8</v>
       </c>
-      <c r="D195">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D195" t="s">
+        <v>313</v>
+      </c>
+      <c r="E195" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>204</v>
       </c>
@@ -4096,11 +4696,14 @@
       <c r="C196" t="s">
         <v>8</v>
       </c>
-      <c r="D196">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D196" t="s">
+        <v>313</v>
+      </c>
+      <c r="E196" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>205</v>
       </c>
@@ -4110,11 +4713,14 @@
       <c r="C197" t="s">
         <v>8</v>
       </c>
-      <c r="D197">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D197" t="s">
+        <v>313</v>
+      </c>
+      <c r="E197" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>206</v>
       </c>
@@ -4124,11 +4730,14 @@
       <c r="C198" t="s">
         <v>8</v>
       </c>
-      <c r="D198">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D198" t="s">
+        <v>313</v>
+      </c>
+      <c r="E198" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>207</v>
       </c>
@@ -4138,11 +4747,14 @@
       <c r="C199" t="s">
         <v>8</v>
       </c>
-      <c r="D199">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D199" t="s">
+        <v>313</v>
+      </c>
+      <c r="E199" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>208</v>
       </c>
@@ -4152,11 +4764,14 @@
       <c r="C200" t="s">
         <v>8</v>
       </c>
-      <c r="D200">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D200" t="s">
+        <v>313</v>
+      </c>
+      <c r="E200" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>209</v>
       </c>
@@ -4166,11 +4781,14 @@
       <c r="C201" t="s">
         <v>8</v>
       </c>
-      <c r="D201">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D201" t="s">
+        <v>313</v>
+      </c>
+      <c r="E201" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>210</v>
       </c>
@@ -4180,11 +4798,14 @@
       <c r="C202" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D202" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D202" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E202" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>211</v>
       </c>
@@ -4194,11 +4815,14 @@
       <c r="C203" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D203" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D203" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E203" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>212</v>
       </c>
@@ -4208,11 +4832,14 @@
       <c r="C204" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D204" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D204" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E204" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>213</v>
       </c>
@@ -4222,11 +4849,14 @@
       <c r="C205" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D205" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D205" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E205" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>214</v>
       </c>
@@ -4236,11 +4866,14 @@
       <c r="C206" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D206" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D206" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E206" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>215</v>
       </c>
@@ -4250,11 +4883,14 @@
       <c r="C207" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D207" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D207" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E207" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>216</v>
       </c>
@@ -4264,11 +4900,14 @@
       <c r="C208" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D208" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D208" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E208" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>217</v>
       </c>
@@ -4278,11 +4917,14 @@
       <c r="C209" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D209" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D209" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E209" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>218</v>
       </c>
@@ -4292,11 +4934,14 @@
       <c r="C210" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D210" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D210" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E210" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>219</v>
       </c>
@@ -4306,11 +4951,14 @@
       <c r="C211" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D211" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D211" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E211" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>220</v>
       </c>
@@ -4320,11 +4968,14 @@
       <c r="C212" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D212" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D212" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E212" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>221</v>
       </c>
@@ -4334,11 +4985,14 @@
       <c r="C213" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D213" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D213" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E213" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>222</v>
       </c>
@@ -4348,11 +5002,14 @@
       <c r="C214" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D214" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D214" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E214" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>223</v>
       </c>
@@ -4362,11 +5019,14 @@
       <c r="C215" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D215" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D215" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E215" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>224</v>
       </c>
@@ -4376,11 +5036,14 @@
       <c r="C216" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D216" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D216" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E216" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>225</v>
       </c>
@@ -4390,11 +5053,14 @@
       <c r="C217" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D217" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D217" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E217" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>226</v>
       </c>
@@ -4404,11 +5070,14 @@
       <c r="C218" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D218" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D218" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E218" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>227</v>
       </c>
@@ -4418,11 +5087,14 @@
       <c r="C219" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D219" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D219" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E219" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>228</v>
       </c>
@@ -4432,11 +5104,14 @@
       <c r="C220" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D220" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D220" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E220" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>229</v>
       </c>
@@ -4446,11 +5121,14 @@
       <c r="C221" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D221" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D221" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E221" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>230</v>
       </c>
@@ -4460,11 +5138,14 @@
       <c r="C222" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D222" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D222" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E222" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>231</v>
       </c>
@@ -4474,11 +5155,14 @@
       <c r="C223" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D223" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D223" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E223" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>232</v>
       </c>
@@ -4488,11 +5172,14 @@
       <c r="C224" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D224" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D224" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E224" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>233</v>
       </c>
@@ -4502,11 +5189,14 @@
       <c r="C225" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D225" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D225" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E225" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>234</v>
       </c>
@@ -4516,11 +5206,14 @@
       <c r="C226" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D226" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D226" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E226" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>235</v>
       </c>
@@ -4530,11 +5223,14 @@
       <c r="C227" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D227" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D227" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E227" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>236</v>
       </c>
@@ -4544,11 +5240,14 @@
       <c r="C228" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D228" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D228" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E228" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>237</v>
       </c>
@@ -4558,11 +5257,14 @@
       <c r="C229" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D229" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D229" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E229" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>238</v>
       </c>
@@ -4572,11 +5274,14 @@
       <c r="C230" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D230" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D230" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E230" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>239</v>
       </c>
@@ -4586,11 +5291,14 @@
       <c r="C231" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D231" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D231" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E231" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>240</v>
       </c>
@@ -4600,11 +5308,14 @@
       <c r="C232" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D232" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D232" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E232" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>241</v>
       </c>
@@ -4614,11 +5325,14 @@
       <c r="C233" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D233" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D233" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E233" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>242</v>
       </c>
@@ -4628,11 +5342,14 @@
       <c r="C234" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D234" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D234" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E234" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>243</v>
       </c>
@@ -4642,11 +5359,14 @@
       <c r="C235" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D235" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D235" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E235" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>244</v>
       </c>
@@ -4656,11 +5376,14 @@
       <c r="C236" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D236" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D236" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E236" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>245</v>
       </c>
@@ -4670,11 +5393,14 @@
       <c r="C237" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D237" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D237" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E237" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>246</v>
       </c>
@@ -4684,11 +5410,14 @@
       <c r="C238" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D238" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D238" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E238" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>247</v>
       </c>
@@ -4698,11 +5427,14 @@
       <c r="C239" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D239" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D239" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E239" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>248</v>
       </c>
@@ -4712,11 +5444,14 @@
       <c r="C240" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D240" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D240" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E240" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>249</v>
       </c>
@@ -4726,11 +5461,14 @@
       <c r="C241" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D241" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D241" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E241" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>250</v>
       </c>
@@ -4740,11 +5478,14 @@
       <c r="C242" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D242" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D242" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E242" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>251</v>
       </c>
@@ -4754,11 +5495,14 @@
       <c r="C243" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D243" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D243" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E243" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>252</v>
       </c>
@@ -4768,11 +5512,14 @@
       <c r="C244" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D244" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D244" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E244" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>253</v>
       </c>
@@ -4782,11 +5529,14 @@
       <c r="C245" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D245" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D245" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E245" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>254</v>
       </c>
@@ -4796,11 +5546,14 @@
       <c r="C246" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D246" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D246" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E246" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>255</v>
       </c>
@@ -4810,11 +5563,14 @@
       <c r="C247" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D247" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D247" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E247" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>256</v>
       </c>
@@ -4824,11 +5580,14 @@
       <c r="C248" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D248" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D248" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E248" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>257</v>
       </c>
@@ -4838,11 +5597,14 @@
       <c r="C249" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D249" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D249" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E249" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>258</v>
       </c>
@@ -4852,11 +5614,14 @@
       <c r="C250" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D250" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D250" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E250" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>259</v>
       </c>
@@ -4866,11 +5631,14 @@
       <c r="C251" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D251" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D251" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E251" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>260</v>
       </c>
@@ -4880,11 +5648,14 @@
       <c r="C252" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D252" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D252" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E252" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>261</v>
       </c>
@@ -4894,11 +5665,14 @@
       <c r="C253" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D253" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D253" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E253" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>262</v>
       </c>
@@ -4908,11 +5682,14 @@
       <c r="C254" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D254" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D254" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E254" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>263</v>
       </c>
@@ -4922,11 +5699,14 @@
       <c r="C255" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D255" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D255" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E255" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>264</v>
       </c>
@@ -4936,11 +5716,14 @@
       <c r="C256" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D256" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D256" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E256" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>265</v>
       </c>
@@ -4950,11 +5733,14 @@
       <c r="C257" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D257" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D257" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E257" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>266</v>
       </c>
@@ -4964,11 +5750,14 @@
       <c r="C258" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D258" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D258" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E258" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>267</v>
       </c>
@@ -4978,11 +5767,14 @@
       <c r="C259" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D259" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D259" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E259" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>268</v>
       </c>
@@ -4992,11 +5784,14 @@
       <c r="C260" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D260" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D260" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E260" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>269</v>
       </c>
@@ -5006,11 +5801,14 @@
       <c r="C261" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D261" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D261" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E261" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>270</v>
       </c>
@@ -5020,11 +5818,14 @@
       <c r="C262" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D262" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D262" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E262" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>271</v>
       </c>
@@ -5034,11 +5835,14 @@
       <c r="C263" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D263" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D263" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E263" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>272</v>
       </c>
@@ -5048,11 +5852,14 @@
       <c r="C264" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D264" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D264" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E264" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>273</v>
       </c>
@@ -5062,11 +5869,14 @@
       <c r="C265" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D265" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D265" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E265" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>274</v>
       </c>
@@ -5076,11 +5886,14 @@
       <c r="C266" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D266" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D266" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E266" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>275</v>
       </c>
@@ -5090,11 +5903,14 @@
       <c r="C267" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D267" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D267" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E267" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>276</v>
       </c>
@@ -5104,11 +5920,14 @@
       <c r="C268" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D268" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D268" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E268" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>277</v>
       </c>
@@ -5118,11 +5937,14 @@
       <c r="C269" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D269" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D269" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E269" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>278</v>
       </c>
@@ -5132,11 +5954,14 @@
       <c r="C270" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D270" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D270" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E270" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>279</v>
       </c>
@@ -5146,11 +5971,14 @@
       <c r="C271" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D271" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D271" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E271" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>280</v>
       </c>
@@ -5160,11 +5988,14 @@
       <c r="C272" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D272" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D272" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E272" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>281</v>
       </c>
@@ -5174,11 +6005,14 @@
       <c r="C273" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D273" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D273" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E273" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>282</v>
       </c>
@@ -5188,11 +6022,14 @@
       <c r="C274" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D274" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D274" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E274" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>283</v>
       </c>
@@ -5202,11 +6039,14 @@
       <c r="C275" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D275" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D275" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E275" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>284</v>
       </c>
@@ -5216,11 +6056,14 @@
       <c r="C276" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D276" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D276" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E276" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>285</v>
       </c>
@@ -5230,11 +6073,14 @@
       <c r="C277" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D277" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D277" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E277" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>286</v>
       </c>
@@ -5244,11 +6090,14 @@
       <c r="C278" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D278" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D278" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E278" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>287</v>
       </c>
@@ -5258,11 +6107,14 @@
       <c r="C279" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D279" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D279" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E279" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>288</v>
       </c>
@@ -5272,11 +6124,14 @@
       <c r="C280" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D280" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D280" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E280" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>289</v>
       </c>
@@ -5286,11 +6141,14 @@
       <c r="C281" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D281" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D281" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E281" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>290</v>
       </c>
@@ -5300,11 +6158,14 @@
       <c r="C282" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D282" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D282" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E282" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>291</v>
       </c>
@@ -5314,11 +6175,14 @@
       <c r="C283" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D283" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D283" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E283" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>292</v>
       </c>
@@ -5328,11 +6192,14 @@
       <c r="C284" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D284" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D284" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E284" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>293</v>
       </c>
@@ -5342,11 +6209,14 @@
       <c r="C285" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D285" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D285" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E285" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>294</v>
       </c>
@@ -5356,11 +6226,14 @@
       <c r="C286" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D286" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D286" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E286" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>295</v>
       </c>
@@ -5370,11 +6243,14 @@
       <c r="C287" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D287" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D287" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E287" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>296</v>
       </c>
@@ -5384,11 +6260,14 @@
       <c r="C288" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D288" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D288" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E288" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>297</v>
       </c>
@@ -5398,11 +6277,14 @@
       <c r="C289" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D289" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D289" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E289" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>298</v>
       </c>
@@ -5412,11 +6294,14 @@
       <c r="C290" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D290" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D290" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E290" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>299</v>
       </c>
@@ -5426,11 +6311,14 @@
       <c r="C291" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D291" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D291" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E291" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>300</v>
       </c>
@@ -5440,11 +6328,14 @@
       <c r="C292" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D292" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D292" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E292" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>301</v>
       </c>
@@ -5454,11 +6345,14 @@
       <c r="C293" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D293" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D293" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E293" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>302</v>
       </c>
@@ -5468,11 +6362,14 @@
       <c r="C294" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D294" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D294" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E294" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>303</v>
       </c>
@@ -5482,11 +6379,14 @@
       <c r="C295" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D295" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D295" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E295" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>304</v>
       </c>
@@ -5496,11 +6396,14 @@
       <c r="C296" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D296" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D296" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E296" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>305</v>
       </c>
@@ -5510,11 +6413,14 @@
       <c r="C297" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D297" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D297" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E297" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>306</v>
       </c>
@@ -5524,11 +6430,14 @@
       <c r="C298" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D298" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D298" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E298" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>307</v>
       </c>
@@ -5538,11 +6447,14 @@
       <c r="C299" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D299" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D299" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E299" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>308</v>
       </c>
@@ -5552,11 +6464,14 @@
       <c r="C300" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D300" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D300" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E300" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>309</v>
       </c>
@@ -5566,8 +6481,11 @@
       <c r="C301" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D301" s="1">
-        <v>3</v>
+      <c r="D301" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E301" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
